--- a/Datos_Prueba/Resultados/Test_FMT4/Excel_Filas_Ordenadas_7_DESC.xlsx
+++ b/Datos_Prueba/Resultados/Test_FMT4/Excel_Filas_Ordenadas_7_DESC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egarciar\Documents\CAIXA\AutoHotKeyEGR\Datos_Prueba\Resultados\Test_FMT4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65861019-61C8-43E6-9C22-6C1A15EC687F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3FCC742-9971-46B5-9ADC-E7E65F8E51B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24800" yWindow="740" windowWidth="17570" windowHeight="8220" xr2:uid="{191F3380-C509-4B78-8F42-6DAD68729CF9}"/>
+    <workbookView xWindow="24800" yWindow="740" windowWidth="17570" windowHeight="8220" xr2:uid="{6812B45B-2EA8-43CE-8F8C-C034B4B120AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -551,7 +551,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BC1B9B3-1404-4E7A-94A5-F43A203F7714}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2953B82F-8A88-4E5E-9C9C-E6E5229B27CA}">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
